--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unaledu-my.sharepoint.com/personal/scarvajal_unal_edu_co/Documents/MNL/Tarea 1 Hielos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{749A67EE-F898-43C0-ABD5-FD20B3382A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{749A67EE-F898-43C0-ABD5-FD20B3382A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CBEE599-A874-45D2-996E-8D5399CE540B}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{EA4199BD-6337-4503-B5D5-74364C08036D}"/>
   </bookViews>
@@ -30,10 +30,10 @@
     <t>Tiempo</t>
   </si>
   <si>
-    <t>Volumen derretido</t>
+    <t>Valor_inicial</t>
   </si>
   <si>
-    <t>Valor inicial</t>
+    <t>Volumen_derretido</t>
   </si>
 </sst>
 </file>
@@ -86,6 +86,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -388,7 +392,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,13 +402,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -602,7 +606,7 @@
         <v>60</v>
       </c>
       <c r="C19">
-        <v>1.8</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unaledu-my.sharepoint.com/personal/scarvajal_unal_edu_co/Documents/MNL/Tarea 1 Hielos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{749A67EE-F898-43C0-ABD5-FD20B3382A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CBEE599-A874-45D2-996E-8D5399CE540B}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{749A67EE-F898-43C0-ABD5-FD20B3382A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36E79F70-ED42-4AF9-B3C1-E85914DDFF7C}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{EA4199BD-6337-4503-B5D5-74364C08036D}"/>
   </bookViews>
@@ -89,6 +89,18 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -389,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE038D40-D6B3-4C74-BFBE-F896323A6DAF}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,10 +582,10 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>8.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -581,10 +593,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>8.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -592,10 +604,10 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C18">
-        <v>11.2</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -603,10 +615,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C19">
-        <v>13.8</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -614,24 +626,204 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C20">
-        <v>14.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>60</v>
+      </c>
+      <c r="C22">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>60</v>
+      </c>
+      <c r="C23">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>60</v>
+      </c>
+      <c r="C24">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>60</v>
+      </c>
+      <c r="C25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>40</v>
+      </c>
+      <c r="C30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>40</v>
+      </c>
+      <c r="C33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>60</v>
+      </c>
+      <c r="C34">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>60</v>
+      </c>
+      <c r="C35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36">
+        <v>60</v>
+      </c>
+      <c r="C36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="B37">
+        <v>60</v>
+      </c>
+      <c r="C37">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C36">
+    <sortCondition ref="A2:A36"/>
+    <sortCondition ref="B2:B36"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/datos.xlsx
+++ b/datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unaledu-my.sharepoint.com/personal/scarvajal_unal_edu_co/Documents/MNL/Tarea 1 Hielos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/80f5a00308bb530a/Documents/GitHub/Tarea_Hielos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{749A67EE-F898-43C0-ABD5-FD20B3382A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36E79F70-ED42-4AF9-B3C1-E85914DDFF7C}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{749A67EE-F898-43C0-ABD5-FD20B3382A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3F088F5-EE92-4F4C-B684-2FF23E586B00}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{EA4199BD-6337-4503-B5D5-74364C08036D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EA4199BD-6337-4503-B5D5-74364C08036D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -88,24 +88,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -403,11 +387,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE038D40-D6B3-4C74-BFBE-F896323A6DAF}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -820,9 +804,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C36">
-    <sortCondition ref="A2:A36"/>
-    <sortCondition ref="B2:B36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C37">
+    <sortCondition ref="A2:A37"/>
+    <sortCondition ref="B2:B37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
